--- a/ValueSet-stroke-etiology-vs.xlsx
+++ b/ValueSet-stroke-etiology-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Cardioembolic stroke (disorder)</t>
+  </si>
+  <si>
+    <t>230698000</t>
+  </si>
+  <si>
+    <t>Lacunar infarction (disorder)</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
@@ -447,7 +453,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,18 +489,26 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>39</v>
+      <c r="B6" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-stroke-etiology-vs.xlsx
+++ b/ValueSet-stroke-etiology-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/stroke-etiology-vs</t>
+    <t>http://tecnomod-um.org/ValueSet/stroke-etiology-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>UMU (http://testSK.org/umu)</t>
+    <t>UMU (http://tecnomod-um.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -115,7 +115,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://testSK.org/CodeSystem/stroke-etiology-cs</t>
+    <t>http://tecnomod-um.org/CodeSystem/stroke-etiology-cs</t>
   </si>
   <si>
     <t>Concept</t>
